--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>183.8685355627649</v>
+        <v>814.9848603322555</v>
       </c>
       <c r="C2">
-        <v>0.04274669263491987</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D2">
-        <v>27.14128893977737</v>
+        <v>120.3019293546889</v>
       </c>
       <c r="E2">
-        <v>7.464337893212109</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F2">
-        <v>39.0151768706604</v>
+        <v>172.9321353186029</v>
       </c>
       <c r="G2">
-        <v>22.30060124094967</v>
+        <v>98.84590820312835</v>
       </c>
       <c r="H2">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I2">
-        <v>280.5284839955222</v>
+        <v>1243.423550682855</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>211.277509808146</v>
+        <v>936.4732867171879</v>
       </c>
       <c r="C3">
-        <v>0.05088891980347603</v>
+        <v>0.2255616985883802</v>
       </c>
       <c r="D3">
-        <v>18.09419262651824</v>
+        <v>80.20128623645921</v>
       </c>
       <c r="E3">
-        <v>4.265335938978348</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F3">
-        <v>48.94631280137398</v>
+        <v>216.9512243087927</v>
       </c>
       <c r="G3">
-        <v>34.56593192347201</v>
+        <v>153.211157714849</v>
       </c>
       <c r="I3">
-        <v>317.2001720182921</v>
+        <v>1405.968330027024</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>172.1626194788001</v>
+        <v>763.0991782303568</v>
       </c>
       <c r="C4">
-        <v>0.03664002225850273</v>
+        <v>0.1624044229836337</v>
       </c>
       <c r="D4">
-        <v>14.32456916266028</v>
+        <v>63.49268493719691</v>
       </c>
       <c r="E4">
-        <v>7.19775439702596</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F4">
-        <v>38.30581001846659</v>
+        <v>169.7879146764465</v>
       </c>
       <c r="G4">
-        <v>22.85811627197342</v>
+        <v>101.3170559082065</v>
       </c>
       <c r="H4">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I4">
-        <v>255.5813061467076</v>
+        <v>1132.84687048811</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>197.0020023886767</v>
+        <v>873.1980646417022</v>
       </c>
       <c r="C5">
-        <v>0.04885336301133697</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D5">
-        <v>21.86381609037621</v>
+        <v>96.90988753572158</v>
       </c>
       <c r="E5">
-        <v>4.798502931350641</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F5">
-        <v>37.24175974017584</v>
+        <v>165.0715837132119</v>
       </c>
       <c r="G5">
-        <v>16.16793589968852</v>
+        <v>71.66328344726806</v>
       </c>
       <c r="H5">
-        <v>1.391593591045672</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I5">
-        <v>278.514464004325</v>
+        <v>1234.496543154305</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>187.2946573434376</v>
+        <v>830.1709136303722</v>
       </c>
       <c r="C6">
-        <v>0.06717337414058835</v>
+        <v>0.2977414421366619</v>
       </c>
       <c r="D6">
-        <v>18.09419262651824</v>
+        <v>80.20128623645921</v>
       </c>
       <c r="E6">
-        <v>4.531919435164494</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F6">
-        <v>36.88707631407895</v>
+        <v>163.4994733921337</v>
       </c>
       <c r="G6">
-        <v>21.74308620992594</v>
+        <v>96.37476049805014</v>
       </c>
       <c r="H6">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I6">
-        <v>268.9660037010273</v>
+        <v>1192.173638026175</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>183.5830254143756</v>
+        <v>813.7193558907456</v>
       </c>
       <c r="C7">
-        <v>0.03867557905064178</v>
+        <v>0.171426890927169</v>
       </c>
       <c r="D7">
-        <v>14.32456916266028</v>
+        <v>63.49268493719691</v>
       </c>
       <c r="E7">
-        <v>6.131420412281376</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F7">
-        <v>41.4979608533388</v>
+        <v>183.9369075661504</v>
       </c>
       <c r="G7">
-        <v>20.07054111685472</v>
+        <v>88.96131738281551</v>
       </c>
       <c r="H7">
-        <v>3.131085579852762</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I7">
-        <v>268.7772781184141</v>
+        <v>1191.33712463297</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>177.0162920014195</v>
+        <v>784.6127537360225</v>
       </c>
       <c r="C8">
-        <v>0.05903114697203219</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D8">
-        <v>15.07849385543187</v>
+        <v>66.83440519704941</v>
       </c>
       <c r="E8">
-        <v>5.331669923722932</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F8">
-        <v>39.3698602967573</v>
+        <v>174.504245639681</v>
       </c>
       <c r="G8">
-        <v>16.72545093071226</v>
+        <v>74.13443115234622</v>
       </c>
       <c r="H8">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I8">
-        <v>254.6244933483002</v>
+        <v>1128.605862408683</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>198.4295531306237</v>
+        <v>879.5255868492509</v>
       </c>
       <c r="C9">
-        <v>0.03256890867422466</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D9">
-        <v>30.15698771086373</v>
+        <v>133.6688103940988</v>
       </c>
       <c r="E9">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F9">
-        <v>38.66049344456349</v>
+        <v>171.3600249975247</v>
       </c>
       <c r="G9">
-        <v>12.26533068252233</v>
+        <v>54.36524951172056</v>
       </c>
       <c r="H9">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I9">
-        <v>286.9866329789993</v>
+        <v>1272.0488596907</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>241.5415855374211</v>
+        <v>1070.616757517218</v>
       </c>
       <c r="C10">
-        <v>0.04885336301133697</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D10">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E10">
-        <v>5.864836916095228</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F10">
-        <v>33.69492547920673</v>
+        <v>149.3504805024298</v>
       </c>
       <c r="G10">
-        <v>8.920240496379874</v>
+        <v>39.53836328125132</v>
       </c>
       <c r="H10">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I10">
-        <v>309.2664575091655</v>
+        <v>1370.802676527112</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>235.8313825696333</v>
+        <v>1045.306668687023</v>
       </c>
       <c r="C11">
-        <v>0.01424889754497329</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D11">
-        <v>20.35596670483303</v>
+        <v>90.22644701601666</v>
       </c>
       <c r="E11">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F11">
-        <v>17.73417130484564</v>
+        <v>78.60551605391042</v>
       </c>
       <c r="G11">
-        <v>5.575150310237419</v>
+        <v>24.71147705078209</v>
       </c>
       <c r="H11">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I11">
-        <v>287.1378874834569</v>
+        <v>1272.719285061809</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>207.8513880274735</v>
+        <v>921.2872334190713</v>
       </c>
       <c r="C12">
-        <v>0.02442668150566848</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D12">
-        <v>14.32456916266028</v>
+        <v>63.49268493719691</v>
       </c>
       <c r="E12">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F12">
-        <v>12.76860333948886</v>
+        <v>56.59597155881548</v>
       </c>
       <c r="G12">
-        <v>9.477755527403611</v>
+        <v>42.00951098632952</v>
       </c>
       <c r="H12">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I12">
-        <v>254.4729619005699</v>
+        <v>1127.934209505228</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>163.3118048787292</v>
+        <v>723.8685405435559</v>
       </c>
       <c r="C13">
-        <v>0.01221334075283424</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D13">
-        <v>11.3088703915739</v>
+        <v>50.12580389778705</v>
       </c>
       <c r="E13">
-        <v>7.464337893212109</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F13">
-        <v>11.34986963510121</v>
+        <v>50.30753027450267</v>
       </c>
       <c r="G13">
-        <v>5.01763527921368</v>
+        <v>22.24032934570388</v>
       </c>
       <c r="H13">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I13">
-        <v>198.8126298163443</v>
+        <v>881.2235483751474</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>128.1940566268346</v>
+        <v>568.2114942378613</v>
       </c>
       <c r="C14">
-        <v>0.01832001112925137</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D14">
-        <v>10.5549456988023</v>
+        <v>46.78408363793456</v>
       </c>
       <c r="E14">
-        <v>8.530671877956696</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F14">
-        <v>7.448351948035167</v>
+        <v>33.01431674264236</v>
       </c>
       <c r="G14">
-        <v>3.345090186142452</v>
+        <v>14.82688623046924</v>
       </c>
       <c r="I14">
-        <v>158.0914363489004</v>
+        <v>700.7296097626938</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>84.22549377486902</v>
+        <v>373.3238102453654</v>
       </c>
       <c r="C15">
-        <v>0.008142227168556164</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D15">
-        <v>4.523548156629561</v>
+        <v>20.0503215591148</v>
       </c>
       <c r="E15">
-        <v>4.798502931350641</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F15">
-        <v>5.320251391453691</v>
+        <v>23.58165481617312</v>
       </c>
       <c r="G15">
-        <v>3.902605217166193</v>
+        <v>17.29803393554745</v>
       </c>
       <c r="H15">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I15">
-        <v>103.1264420963991</v>
+        <v>457.1009865894446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>43.68305270357613</v>
+        <v>193.6221795509861</v>
       </c>
       <c r="C16">
-        <v>0.02239112471352945</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D16">
-        <v>6.031397542172751</v>
+        <v>26.73376207881974</v>
       </c>
       <c r="E16">
-        <v>2.132667969489174</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F16">
-        <v>6.384301669744429</v>
+        <v>28.29798577940774</v>
       </c>
       <c r="G16">
-        <v>2.787575155118709</v>
+        <v>12.35573852539104</v>
       </c>
       <c r="I16">
-        <v>61.04138616481473</v>
+        <v>270.5618197575572</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>29.97856558088559</v>
+        <v>132.8779663585199</v>
       </c>
       <c r="C17">
-        <v>0.0101777839606952</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D17">
-        <v>1.507849385543188</v>
+        <v>6.683440519704936</v>
       </c>
       <c r="F17">
-        <v>3.192150834872215</v>
+        <v>14.14899288970387</v>
       </c>
       <c r="G17">
-        <v>2.787575155118709</v>
+        <v>12.35573852539104</v>
       </c>
       <c r="I17">
-        <v>37.4763187403804</v>
+        <v>166.1112506330374</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>24.26836261309786</v>
+        <v>107.5678775283256</v>
       </c>
       <c r="C18">
-        <v>0.02035556792139041</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D18">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="E18">
-        <v>0.2665834961861467</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F18">
-        <v>4.256201113162955</v>
+        <v>18.86532385293849</v>
       </c>
       <c r="G18">
-        <v>2.230060124094968</v>
+        <v>9.88459082031283</v>
       </c>
       <c r="H18">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I18">
-        <v>34.75305848107254</v>
+        <v>154.0405835377269</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>13.41897697430118</v>
+        <v>59.47870875095655</v>
       </c>
       <c r="C19">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D19">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="F19">
-        <v>4.610884539259868</v>
+        <v>20.43743417401671</v>
       </c>
       <c r="G19">
-        <v>3.902605217166193</v>
+        <v>17.29803393554745</v>
       </c>
       <c r="I19">
-        <v>24.95427217219003</v>
+        <v>110.6081253037612</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>13.13346682591178</v>
+        <v>58.21320430944678</v>
       </c>
       <c r="C20">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D20">
-        <v>2.26177407831478</v>
+        <v>10.0251607795574</v>
       </c>
       <c r="E20">
-        <v>1.066333984744587</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F20">
-        <v>2.837467408775302</v>
+        <v>12.57688256862567</v>
       </c>
       <c r="G20">
-        <v>1.115030062047484</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="I20">
-        <v>20.42017903017036</v>
+        <v>90.51106380940369</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>34.26121780672639</v>
+        <v>151.8605329811657</v>
       </c>
       <c r="C21">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D21">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="E21">
-        <v>0.5331669923722935</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F21">
-        <v>4.610884539259868</v>
+        <v>20.43743417401671</v>
       </c>
       <c r="G21">
-        <v>1.115030062047484</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="I21">
-        <v>43.53803372828455</v>
+        <v>192.9793927415856</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>98.78651134272771</v>
+        <v>437.8645367623609</v>
       </c>
       <c r="C22">
-        <v>0.01628445433711233</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D22">
-        <v>11.3088703915739</v>
+        <v>50.12580389778705</v>
       </c>
       <c r="E22">
-        <v>2.399251465675321</v>
+        <v>10.63452001002034</v>
       </c>
       <c r="F22">
-        <v>14.89670389607033</v>
+        <v>66.02863348528473</v>
       </c>
       <c r="G22">
-        <v>8.920240496379874</v>
+        <v>39.53836328125132</v>
       </c>
       <c r="I22">
-        <v>136.3278620467642</v>
+        <v>604.2640371802527</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>156.4595613173838</v>
+        <v>693.4964339473231</v>
       </c>
       <c r="C23">
-        <v>0.02849779508994658</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D23">
-        <v>12.0627950843455</v>
+        <v>53.46752415763949</v>
       </c>
       <c r="E23">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F23">
-        <v>26.60125695726845</v>
+        <v>117.9082740808656</v>
       </c>
       <c r="G23">
-        <v>18.39799602378348</v>
+        <v>81.54787426758085</v>
       </c>
       <c r="H23">
-        <v>1.73949198880709</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I23">
-        <v>224.6200215331934</v>
+        <v>995.613068417398</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>206.1383271371371</v>
+        <v>913.6942067700134</v>
       </c>
       <c r="C24">
-        <v>0.01832001112925137</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D24">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E24">
-        <v>10.13017285507357</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F24">
-        <v>29.08404093994686</v>
+        <v>128.913046328413</v>
       </c>
       <c r="G24">
-        <v>11.15030062047484</v>
+        <v>49.42295410156417</v>
       </c>
       <c r="H24">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I24">
-        <v>276.0650756785743</v>
+        <v>1223.639794899627</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>208.4224083242522</v>
+        <v>923.8182423020912</v>
       </c>
       <c r="C25">
-        <v>0.02035556792139041</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D25">
-        <v>15.07849385543187</v>
+        <v>66.83440519704941</v>
       </c>
       <c r="E25">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F25">
-        <v>21.9903724180086</v>
+        <v>97.47083990684891</v>
       </c>
       <c r="G25">
-        <v>16.72545093071226</v>
+        <v>74.13443115234622</v>
       </c>
       <c r="H25">
-        <v>2.087390386568508</v>
+        <v>9.252216848573928</v>
       </c>
       <c r="I25">
-        <v>271.2556423837347</v>
+        <v>1202.322306781959</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>183.8685355627649</v>
+        <v>814.9848603322555</v>
       </c>
       <c r="C26">
-        <v>0.04274669263491987</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D26">
-        <v>27.14128893977737</v>
+        <v>120.3019293546889</v>
       </c>
       <c r="E26">
-        <v>7.464337893212109</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F26">
-        <v>39.0151768706604</v>
+        <v>172.9321353186029</v>
       </c>
       <c r="G26">
-        <v>22.30060124094967</v>
+        <v>98.84590820312835</v>
       </c>
       <c r="H26">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I26">
-        <v>280.5284839955222</v>
+        <v>1243.423550682855</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>158.743642504499</v>
+        <v>703.6204694794008</v>
       </c>
       <c r="C27">
-        <v>0.04274669263491987</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D27">
-        <v>19.60204201206143</v>
+        <v>86.88472675616414</v>
       </c>
       <c r="E27">
-        <v>4.531919435164494</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F27">
-        <v>45.75416196650177</v>
+        <v>202.8022314190889</v>
       </c>
       <c r="G27">
-        <v>15.61042086866477</v>
+        <v>69.19213574218982</v>
       </c>
       <c r="H27">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I27">
-        <v>244.6328318772878</v>
+        <v>1084.318498050681</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>180.156903633703</v>
+        <v>798.5333025926293</v>
       </c>
       <c r="C28">
-        <v>0.05903114697203219</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D28">
-        <v>19.60204201206143</v>
+        <v>86.88472675616414</v>
       </c>
       <c r="E28">
-        <v>6.131420412281376</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F28">
-        <v>35.46834260969128</v>
+        <v>157.2110321078208</v>
       </c>
       <c r="G28">
-        <v>22.30060124094967</v>
+        <v>98.84590820312835</v>
       </c>
       <c r="H28">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I28">
-        <v>264.4141378511816</v>
+        <v>1171.997800205237</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>164.1683353238972</v>
+        <v>727.6650538680854</v>
       </c>
       <c r="C29">
-        <v>0.05088891980347603</v>
+        <v>0.2255616985883802</v>
       </c>
       <c r="D29">
-        <v>21.10989139760461</v>
+        <v>93.56816727586913</v>
       </c>
       <c r="E29">
-        <v>4.531919435164494</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F29">
-        <v>29.08404093994686</v>
+        <v>128.913046328413</v>
       </c>
       <c r="G29">
-        <v>9.477755527403611</v>
+        <v>42.00951098632952</v>
       </c>
       <c r="H29">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I29">
-        <v>229.4665267371045</v>
+        <v>1017.094875267166</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>165.8813962142336</v>
+        <v>735.2580805171432</v>
       </c>
       <c r="C30">
-        <v>0.03053335188208562</v>
+        <v>0.1353370191530281</v>
       </c>
       <c r="D30">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E30">
-        <v>3.998752442792201</v>
+        <v>17.72420001670056</v>
       </c>
       <c r="F30">
-        <v>35.46834260969128</v>
+        <v>157.2110321078208</v>
       </c>
       <c r="G30">
-        <v>18.39799602378348</v>
+        <v>81.54787426758085</v>
       </c>
       <c r="H30">
-        <v>1.391593591045672</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I30">
-        <v>244.0167315527182</v>
+        <v>1081.587674990426</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>166.4524165110123</v>
+        <v>737.7890894001628</v>
       </c>
       <c r="C31">
-        <v>0.04071113584278082</v>
+        <v>0.1804493588707041</v>
       </c>
       <c r="D31">
-        <v>24.12559016869101</v>
+        <v>106.935048315279</v>
       </c>
       <c r="E31">
-        <v>4.265335938978348</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F31">
-        <v>41.4979608533388</v>
+        <v>183.9369075661504</v>
       </c>
       <c r="G31">
-        <v>11.70781565149859</v>
+        <v>51.89410180664236</v>
       </c>
       <c r="H31">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I31">
-        <v>248.7856270548846</v>
+        <v>1102.72548208111</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>174.1611905175259</v>
+        <v>771.957709320925</v>
       </c>
       <c r="C32">
-        <v>0.04681780621919793</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D32">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E32">
-        <v>5.59825341990908</v>
+        <v>24.81388002338078</v>
       </c>
       <c r="F32">
-        <v>41.4979608533388</v>
+        <v>183.9369075661504</v>
       </c>
       <c r="G32">
-        <v>12.82284571354607</v>
+        <v>56.83639721679878</v>
       </c>
       <c r="H32">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I32">
-        <v>254.0188808231131</v>
+        <v>1125.921525810555</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>198.4295531306237</v>
+        <v>879.5255868492509</v>
       </c>
       <c r="C33">
-        <v>0.03256890867422466</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D33">
-        <v>30.15698771086373</v>
+        <v>133.6688103940988</v>
       </c>
       <c r="E33">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F33">
-        <v>38.66049344456349</v>
+        <v>171.3600249975247</v>
       </c>
       <c r="G33">
-        <v>12.26533068252233</v>
+        <v>54.36524951172056</v>
       </c>
       <c r="H33">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I33">
-        <v>286.9866329789993</v>
+        <v>1272.0488596907</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>241.5415855374211</v>
+        <v>1070.616757517218</v>
       </c>
       <c r="C34">
-        <v>0.04885336301133697</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D34">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E34">
-        <v>5.864836916095228</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F34">
-        <v>33.69492547920673</v>
+        <v>149.3504805024298</v>
       </c>
       <c r="G34">
-        <v>8.920240496379874</v>
+        <v>39.53836328125132</v>
       </c>
       <c r="H34">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I34">
-        <v>309.2664575091655</v>
+        <v>1370.802676527112</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>235.8313825696333</v>
+        <v>1045.306668687023</v>
       </c>
       <c r="C35">
-        <v>0.01424889754497329</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D35">
-        <v>20.35596670483303</v>
+        <v>90.22644701601666</v>
       </c>
       <c r="E35">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F35">
-        <v>17.73417130484564</v>
+        <v>78.60551605391042</v>
       </c>
       <c r="G35">
-        <v>5.575150310237419</v>
+        <v>24.71147705078209</v>
       </c>
       <c r="H35">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I35">
-        <v>287.1378874834569</v>
+        <v>1272.719285061809</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>207.8513880274735</v>
+        <v>921.2872334190713</v>
       </c>
       <c r="C36">
-        <v>0.02442668150566848</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D36">
-        <v>14.32456916266028</v>
+        <v>63.49268493719691</v>
       </c>
       <c r="E36">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F36">
-        <v>12.76860333948886</v>
+        <v>56.59597155881548</v>
       </c>
       <c r="G36">
-        <v>9.477755527403611</v>
+        <v>42.00951098632952</v>
       </c>
       <c r="H36">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I36">
-        <v>254.4729619005699</v>
+        <v>1127.934209505228</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>163.3118048787292</v>
+        <v>723.8685405435559</v>
       </c>
       <c r="C37">
-        <v>0.01221334075283424</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D37">
-        <v>11.3088703915739</v>
+        <v>50.12580389778705</v>
       </c>
       <c r="E37">
-        <v>7.464337893212109</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F37">
-        <v>11.34986963510121</v>
+        <v>50.30753027450267</v>
       </c>
       <c r="G37">
-        <v>5.01763527921368</v>
+        <v>22.24032934570388</v>
       </c>
       <c r="H37">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I37">
-        <v>198.8126298163443</v>
+        <v>881.2235483751474</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>128.1940566268346</v>
+        <v>568.2114942378613</v>
       </c>
       <c r="C38">
-        <v>0.01832001112925137</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D38">
-        <v>10.5549456988023</v>
+        <v>46.78408363793456</v>
       </c>
       <c r="E38">
-        <v>8.530671877956696</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F38">
-        <v>7.448351948035167</v>
+        <v>33.01431674264236</v>
       </c>
       <c r="G38">
-        <v>3.345090186142452</v>
+        <v>14.82688623046924</v>
       </c>
       <c r="I38">
-        <v>158.0914363489004</v>
+        <v>700.7296097626938</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>84.22549377486902</v>
+        <v>373.3238102453654</v>
       </c>
       <c r="C39">
-        <v>0.008142227168556164</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D39">
-        <v>4.523548156629561</v>
+        <v>20.0503215591148</v>
       </c>
       <c r="E39">
-        <v>4.798502931350641</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F39">
-        <v>5.320251391453691</v>
+        <v>23.58165481617312</v>
       </c>
       <c r="G39">
-        <v>3.902605217166193</v>
+        <v>17.29803393554745</v>
       </c>
       <c r="H39">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I39">
-        <v>103.1264420963991</v>
+        <v>457.1009865894446</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>43.68305270357613</v>
+        <v>193.6221795509861</v>
       </c>
       <c r="C40">
-        <v>0.02239112471352945</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D40">
-        <v>6.031397542172751</v>
+        <v>26.73376207881974</v>
       </c>
       <c r="E40">
-        <v>2.132667969489174</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F40">
-        <v>6.384301669744429</v>
+        <v>28.29798577940774</v>
       </c>
       <c r="G40">
-        <v>2.787575155118709</v>
+        <v>12.35573852539104</v>
       </c>
       <c r="I40">
-        <v>61.04138616481473</v>
+        <v>270.5618197575572</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>29.97856558088559</v>
+        <v>132.8779663585199</v>
       </c>
       <c r="C41">
-        <v>0.0101777839606952</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D41">
-        <v>1.507849385543188</v>
+        <v>6.683440519704936</v>
       </c>
       <c r="F41">
-        <v>3.192150834872215</v>
+        <v>14.14899288970387</v>
       </c>
       <c r="G41">
-        <v>2.787575155118709</v>
+        <v>12.35573852539104</v>
       </c>
       <c r="I41">
-        <v>37.4763187403804</v>
+        <v>166.1112506330374</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>24.26836261309786</v>
+        <v>107.5678775283256</v>
       </c>
       <c r="C42">
-        <v>0.02035556792139041</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D42">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="E42">
-        <v>0.2665834961861467</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F42">
-        <v>4.256201113162955</v>
+        <v>18.86532385293849</v>
       </c>
       <c r="G42">
-        <v>2.230060124094968</v>
+        <v>9.88459082031283</v>
       </c>
       <c r="H42">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I42">
-        <v>34.75305848107254</v>
+        <v>154.0405835377269</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>13.41897697430118</v>
+        <v>59.47870875095655</v>
       </c>
       <c r="C43">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D43">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="F43">
-        <v>4.610884539259868</v>
+        <v>20.43743417401671</v>
       </c>
       <c r="G43">
-        <v>3.902605217166193</v>
+        <v>17.29803393554745</v>
       </c>
       <c r="I43">
-        <v>24.95427217219003</v>
+        <v>110.6081253037612</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>13.13346682591178</v>
+        <v>58.21320430944678</v>
       </c>
       <c r="C44">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D44">
-        <v>2.26177407831478</v>
+        <v>10.0251607795574</v>
       </c>
       <c r="E44">
-        <v>1.066333984744587</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F44">
-        <v>2.837467408775302</v>
+        <v>12.57688256862567</v>
       </c>
       <c r="G44">
-        <v>1.115030062047484</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="I44">
-        <v>20.42017903017036</v>
+        <v>90.51106380940369</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>34.26121780672639</v>
+        <v>151.8605329811657</v>
       </c>
       <c r="C45">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D45">
-        <v>3.015698771086376</v>
+        <v>13.36688103940987</v>
       </c>
       <c r="E45">
-        <v>0.5331669923722935</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F45">
-        <v>4.610884539259868</v>
+        <v>20.43743417401671</v>
       </c>
       <c r="G45">
-        <v>1.115030062047484</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="I45">
-        <v>43.53803372828455</v>
+        <v>192.9793927415856</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>98.78651134272771</v>
+        <v>437.8645367623609</v>
       </c>
       <c r="C46">
-        <v>0.01628445433711233</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D46">
-        <v>11.3088703915739</v>
+        <v>50.12580389778705</v>
       </c>
       <c r="E46">
-        <v>2.399251465675321</v>
+        <v>10.63452001002034</v>
       </c>
       <c r="F46">
-        <v>14.89670389607033</v>
+        <v>66.02863348528473</v>
       </c>
       <c r="G46">
-        <v>8.920240496379874</v>
+        <v>39.53836328125132</v>
       </c>
       <c r="I46">
-        <v>136.3278620467642</v>
+        <v>604.2640371802527</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>156.4595613173838</v>
+        <v>693.4964339473231</v>
       </c>
       <c r="C47">
-        <v>0.02849779508994658</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D47">
-        <v>12.0627950843455</v>
+        <v>53.46752415763949</v>
       </c>
       <c r="E47">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F47">
-        <v>26.60125695726845</v>
+        <v>117.9082740808656</v>
       </c>
       <c r="G47">
-        <v>18.39799602378348</v>
+        <v>81.54787426758085</v>
       </c>
       <c r="H47">
-        <v>1.73949198880709</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I47">
-        <v>224.6200215331934</v>
+        <v>995.613068417398</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>206.1383271371371</v>
+        <v>913.6942067700134</v>
       </c>
       <c r="C48">
-        <v>0.01832001112925137</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D48">
-        <v>18.84811731928984</v>
+        <v>83.54300649631172</v>
       </c>
       <c r="E48">
-        <v>10.13017285507357</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F48">
-        <v>29.08404093994686</v>
+        <v>128.913046328413</v>
       </c>
       <c r="G48">
-        <v>11.15030062047484</v>
+        <v>49.42295410156417</v>
       </c>
       <c r="H48">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I48">
-        <v>276.0650756785743</v>
+        <v>1223.639794899627</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>208.4224083242522</v>
+        <v>923.8182423020912</v>
       </c>
       <c r="C49">
-        <v>0.02035556792139041</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D49">
-        <v>15.07849385543187</v>
+        <v>66.83440519704941</v>
       </c>
       <c r="E49">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F49">
-        <v>21.9903724180086</v>
+        <v>97.47083990684891</v>
       </c>
       <c r="G49">
-        <v>16.72545093071226</v>
+        <v>74.13443115234622</v>
       </c>
       <c r="H49">
-        <v>2.087390386568508</v>
+        <v>9.252216848573928</v>
       </c>
       <c r="I49">
-        <v>271.2556423837347</v>
+        <v>1202.322306781959</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>814.9848603322555</v>
+        <v>181.1077467405013</v>
       </c>
       <c r="C2">
-        <v>0.1894718268142393</v>
+        <v>0.04210485040316431</v>
       </c>
       <c r="D2">
-        <v>120.3019293546889</v>
+        <v>26.73376207881974</v>
       </c>
       <c r="E2">
-        <v>33.08517336450772</v>
+        <v>7.352260747668383</v>
       </c>
       <c r="F2">
-        <v>172.9321353186029</v>
+        <v>38.42936340413397</v>
       </c>
       <c r="G2">
-        <v>98.84590820312835</v>
+        <v>21.96575737847296</v>
       </c>
       <c r="H2">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I2">
-        <v>1243.423550682855</v>
+        <v>276.3163445961902</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>936.4732867171879</v>
+        <v>208.1051748260417</v>
       </c>
       <c r="C3">
-        <v>0.2255616985883802</v>
+        <v>0.05012482190852895</v>
       </c>
       <c r="D3">
-        <v>80.20128623645921</v>
+        <v>17.8225080525465</v>
       </c>
       <c r="E3">
-        <v>18.90581335114727</v>
+        <v>4.201291855810505</v>
       </c>
       <c r="F3">
-        <v>216.9512243087927</v>
+        <v>48.21138317973171</v>
       </c>
       <c r="G3">
-        <v>153.211157714849</v>
+        <v>34.04692393663308</v>
       </c>
       <c r="I3">
-        <v>1405.968330027024</v>
+        <v>312.4374066726721</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>763.0991782303568</v>
+        <v>169.5775951623015</v>
       </c>
       <c r="C4">
-        <v>0.1624044229836337</v>
+        <v>0.03608987177414084</v>
       </c>
       <c r="D4">
-        <v>63.49268493719691</v>
+        <v>14.10948554159932</v>
       </c>
       <c r="E4">
-        <v>31.90356003006102</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F4">
-        <v>169.7879146764465</v>
+        <v>37.73064770587697</v>
       </c>
       <c r="G4">
-        <v>101.3170559082065</v>
+        <v>22.51490131293479</v>
       </c>
       <c r="H4">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I4">
-        <v>1132.84687048811</v>
+        <v>251.7437489973577</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>873.1980646417022</v>
+        <v>194.0440143648227</v>
       </c>
       <c r="C5">
-        <v>0.216539230644845</v>
+        <v>0.04811982903218779</v>
       </c>
       <c r="D5">
-        <v>96.90988753572158</v>
+        <v>21.53553056349369</v>
       </c>
       <c r="E5">
-        <v>21.26904002004067</v>
+        <v>4.726453337786818</v>
       </c>
       <c r="F5">
-        <v>165.0715837132119</v>
+        <v>36.68257415849151</v>
       </c>
       <c r="G5">
-        <v>71.66328344726806</v>
+        <v>15.9251740993929</v>
       </c>
       <c r="H5">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I5">
-        <v>1234.496543154305</v>
+        <v>274.3325651454011</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>830.1709136303722</v>
+        <v>184.4824252511937</v>
       </c>
       <c r="C6">
-        <v>0.2977414421366619</v>
+        <v>0.0661647649192582</v>
       </c>
       <c r="D6">
-        <v>80.20128623645921</v>
+        <v>17.8225080525465</v>
       </c>
       <c r="E6">
-        <v>20.08742668559397</v>
+        <v>4.463872596798661</v>
       </c>
       <c r="F6">
-        <v>163.4994733921337</v>
+        <v>36.33321630936304</v>
       </c>
       <c r="G6">
-        <v>96.37476049805014</v>
+        <v>21.41661344401114</v>
       </c>
       <c r="H6">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I6">
-        <v>1192.173638026175</v>
+        <v>264.9274751169276</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>813.7193558907456</v>
+        <v>180.8265235312769</v>
       </c>
       <c r="C7">
-        <v>0.171426890927169</v>
+        <v>0.03809486465048199</v>
       </c>
       <c r="D7">
-        <v>63.49268493719691</v>
+        <v>14.10948554159932</v>
       </c>
       <c r="E7">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F7">
-        <v>183.9369075661504</v>
+        <v>40.87486834803342</v>
       </c>
       <c r="G7">
-        <v>88.96131738281551</v>
+        <v>19.76918164062566</v>
       </c>
       <c r="H7">
-        <v>13.87832527286089</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I7">
-        <v>1191.33712463297</v>
+        <v>264.7415832517714</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>784.6127537360225</v>
+        <v>174.358389719116</v>
       </c>
       <c r="C8">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D8">
-        <v>66.83440519704941</v>
+        <v>14.85209004378875</v>
       </c>
       <c r="E8">
-        <v>23.63226668893409</v>
+        <v>5.25161481976313</v>
       </c>
       <c r="F8">
-        <v>174.504245639681</v>
+        <v>38.77872125326245</v>
       </c>
       <c r="G8">
-        <v>74.13443115234622</v>
+        <v>16.47431803385472</v>
       </c>
       <c r="H8">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I8">
-        <v>1128.605862408683</v>
+        <v>250.8013027574849</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>879.5255868492509</v>
+        <v>195.4501304109445</v>
       </c>
       <c r="C9">
-        <v>0.1443594870965633</v>
+        <v>0.03207988602145852</v>
       </c>
       <c r="D9">
-        <v>133.6688103940988</v>
+        <v>29.70418008757749</v>
       </c>
       <c r="E9">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F9">
-        <v>171.3600249975247</v>
+        <v>38.08000555500548</v>
       </c>
       <c r="G9">
-        <v>54.36524951172056</v>
+        <v>12.08116655816013</v>
       </c>
       <c r="H9">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I9">
-        <v>1272.0488596907</v>
+        <v>282.6775243757108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1070.616757517218</v>
+        <v>237.9148350038262</v>
       </c>
       <c r="C10">
-        <v>0.216539230644845</v>
+        <v>0.04811982903218779</v>
       </c>
       <c r="D10">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E10">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F10">
-        <v>149.3504805024298</v>
+        <v>33.18899566720661</v>
       </c>
       <c r="G10">
-        <v>39.53836328125132</v>
+        <v>8.786302951389185</v>
       </c>
       <c r="H10">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I10">
-        <v>1370.802676527112</v>
+        <v>304.6228170060249</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1045.306668687023</v>
+        <v>232.2903708193386</v>
       </c>
       <c r="C11">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D11">
-        <v>90.22644701601666</v>
+        <v>20.0503215591148</v>
       </c>
       <c r="E11">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F11">
-        <v>78.60551605391042</v>
+        <v>17.46789245642454</v>
       </c>
       <c r="G11">
-        <v>24.71147705078209</v>
+        <v>5.491439344618241</v>
       </c>
       <c r="H11">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I11">
-        <v>1272.719285061809</v>
+        <v>282.8265077915132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>921.2872334190713</v>
+        <v>204.7304963153492</v>
       </c>
       <c r="C12">
-        <v>0.1082696153224225</v>
+        <v>0.0240599145160939</v>
       </c>
       <c r="D12">
-        <v>63.49268493719691</v>
+        <v>14.10948554159932</v>
       </c>
       <c r="E12">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F12">
-        <v>56.59597155881548</v>
+        <v>12.57688256862567</v>
       </c>
       <c r="G12">
-        <v>42.00951098632952</v>
+        <v>9.33544688585101</v>
       </c>
       <c r="H12">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I12">
-        <v>1127.934209505228</v>
+        <v>250.6520465567174</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>723.8685405435559</v>
+        <v>160.8596756763458</v>
       </c>
       <c r="C13">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D13">
-        <v>50.12580389778705</v>
+        <v>11.13906753284156</v>
       </c>
       <c r="E13">
-        <v>33.08517336450772</v>
+        <v>7.352260747668383</v>
       </c>
       <c r="F13">
-        <v>50.30753027450267</v>
+        <v>11.1794511721117</v>
       </c>
       <c r="G13">
-        <v>22.24032934570388</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="H13">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I13">
-        <v>881.2235483751474</v>
+        <v>195.8274551944772</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>568.2114942378613</v>
+        <v>126.2692209417469</v>
       </c>
       <c r="C14">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D14">
-        <v>46.78408363793456</v>
+        <v>10.39646303065213</v>
       </c>
       <c r="E14">
-        <v>37.81162670229454</v>
+        <v>8.402583711621009</v>
       </c>
       <c r="F14">
-        <v>33.01431674264236</v>
+        <v>7.336514831698302</v>
       </c>
       <c r="G14">
-        <v>14.82688623046924</v>
+        <v>3.294863606770943</v>
       </c>
       <c r="I14">
-        <v>700.7296097626938</v>
+        <v>155.7176910583764</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>373.3238102453654</v>
+        <v>82.96084672119225</v>
       </c>
       <c r="C15">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D15">
-        <v>20.0503215591148</v>
+        <v>4.455627013136626</v>
       </c>
       <c r="E15">
-        <v>21.26904002004067</v>
+        <v>4.726453337786818</v>
       </c>
       <c r="F15">
-        <v>23.58165481617312</v>
+        <v>5.240367736927359</v>
       </c>
       <c r="G15">
-        <v>17.29803393554745</v>
+        <v>3.844007541232768</v>
       </c>
       <c r="H15">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I15">
-        <v>457.1009865894446</v>
+        <v>101.5779970198765</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>193.6221795509861</v>
+        <v>43.02715101133026</v>
       </c>
       <c r="C16">
-        <v>0.0992471473788873</v>
+        <v>0.02205492163975274</v>
       </c>
       <c r="D16">
-        <v>26.73376207881974</v>
+        <v>5.940836017515498</v>
       </c>
       <c r="E16">
-        <v>9.452906675573635</v>
+        <v>2.100645927905252</v>
       </c>
       <c r="F16">
-        <v>28.29798577940774</v>
+        <v>6.288441284312833</v>
       </c>
       <c r="G16">
-        <v>12.35573852539104</v>
+        <v>2.745719672309121</v>
       </c>
       <c r="I16">
-        <v>270.5618197575572</v>
+        <v>60.12484883501271</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>132.8779663585199</v>
+        <v>29.52843696855998</v>
       </c>
       <c r="C17">
-        <v>0.04511233971767603</v>
+        <v>0.01002496438170579</v>
       </c>
       <c r="D17">
-        <v>6.683440519704936</v>
+        <v>1.485209004378874</v>
       </c>
       <c r="F17">
-        <v>14.14899288970387</v>
+        <v>3.144220642156417</v>
       </c>
       <c r="G17">
-        <v>12.35573852539104</v>
+        <v>2.745719672309121</v>
       </c>
       <c r="I17">
-        <v>166.1112506330374</v>
+        <v>36.9136112517861</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>107.5678775283256</v>
+        <v>23.90397278407235</v>
       </c>
       <c r="C18">
-        <v>0.09022467943535206</v>
+        <v>0.02004992876341158</v>
       </c>
       <c r="D18">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="E18">
-        <v>1.181613334446704</v>
+        <v>0.2625807409881565</v>
       </c>
       <c r="F18">
-        <v>18.86532385293849</v>
+        <v>4.192294189541888</v>
       </c>
       <c r="G18">
-        <v>9.88459082031283</v>
+        <v>2.196575737847296</v>
       </c>
       <c r="H18">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I18">
-        <v>154.0405835377269</v>
+        <v>34.23124078616151</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>59.47870875095655</v>
+        <v>13.2174908335459</v>
       </c>
       <c r="C19">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D19">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="F19">
-        <v>20.43743417401671</v>
+        <v>4.54165203867038</v>
       </c>
       <c r="G19">
-        <v>17.29803393554745</v>
+        <v>3.844007541232768</v>
       </c>
       <c r="I19">
-        <v>110.6081253037612</v>
+        <v>24.57958340083582</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>58.21320430944678</v>
+        <v>12.93626762432151</v>
       </c>
       <c r="C20">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D20">
-        <v>10.0251607795574</v>
+        <v>2.227813506568313</v>
       </c>
       <c r="E20">
-        <v>4.726453337786817</v>
+        <v>1.050322963952626</v>
       </c>
       <c r="F20">
-        <v>12.57688256862567</v>
+        <v>2.794862793027925</v>
       </c>
       <c r="G20">
-        <v>4.942295410156415</v>
+        <v>1.098287868923648</v>
       </c>
       <c r="I20">
-        <v>90.51106380940369</v>
+        <v>20.11356973542305</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>151.8605329811657</v>
+        <v>33.74678510692569</v>
       </c>
       <c r="C21">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D21">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="E21">
-        <v>2.363226668893409</v>
+        <v>0.5251614819763131</v>
       </c>
       <c r="F21">
-        <v>20.43743417401671</v>
+        <v>4.54165203867038</v>
       </c>
       <c r="G21">
-        <v>4.942295410156415</v>
+        <v>1.098287868923648</v>
       </c>
       <c r="I21">
-        <v>192.9793927415856</v>
+        <v>42.88430949813011</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>437.8645367623609</v>
+        <v>97.30323039163571</v>
       </c>
       <c r="C22">
-        <v>0.07217974354828166</v>
+        <v>0.01603994301072926</v>
       </c>
       <c r="D22">
-        <v>50.12580389778705</v>
+        <v>11.13906753284156</v>
       </c>
       <c r="E22">
-        <v>10.63452001002034</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F22">
-        <v>66.02863348528473</v>
+        <v>14.6730296633966</v>
       </c>
       <c r="G22">
-        <v>39.53836328125132</v>
+        <v>8.786302951389185</v>
       </c>
       <c r="I22">
-        <v>604.2640371802527</v>
+        <v>134.2808971511672</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>693.4964339473231</v>
+        <v>154.1103186549606</v>
       </c>
       <c r="C23">
-        <v>0.1263145512094929</v>
+        <v>0.02806990026877621</v>
       </c>
       <c r="D23">
-        <v>53.46752415763949</v>
+        <v>11.881672035031</v>
       </c>
       <c r="E23">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F23">
-        <v>117.9082740808656</v>
+        <v>26.2018386846368</v>
       </c>
       <c r="G23">
-        <v>81.54787426758085</v>
+        <v>18.1217498372402</v>
       </c>
       <c r="H23">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I23">
-        <v>995.613068417398</v>
+        <v>221.2473485371995</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>913.6942067700134</v>
+        <v>203.0431570600029</v>
       </c>
       <c r="C24">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D24">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E24">
-        <v>44.90130670897475</v>
+        <v>9.978068157549945</v>
       </c>
       <c r="F24">
-        <v>128.913046328413</v>
+        <v>28.64734362853624</v>
       </c>
       <c r="G24">
-        <v>49.42295410156417</v>
+        <v>10.98287868923648</v>
       </c>
       <c r="H24">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I24">
-        <v>1223.639794899627</v>
+        <v>271.9199544221392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>923.8182423020912</v>
+        <v>205.2929427337979</v>
       </c>
       <c r="C25">
-        <v>0.09022467943535206</v>
+        <v>0.02004992876341158</v>
       </c>
       <c r="D25">
-        <v>66.83440519704941</v>
+        <v>14.85209004378875</v>
       </c>
       <c r="E25">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F25">
-        <v>97.47083990684891</v>
+        <v>21.66018664596642</v>
       </c>
       <c r="G25">
-        <v>74.13443115234622</v>
+        <v>16.47431803385472</v>
       </c>
       <c r="H25">
-        <v>9.252216848573928</v>
+        <v>2.056048188571983</v>
       </c>
       <c r="I25">
-        <v>1202.322306781959</v>
+        <v>267.1827348404352</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>814.9848603322555</v>
+        <v>181.1077467405013</v>
       </c>
       <c r="C26">
-        <v>0.1894718268142393</v>
+        <v>0.04210485040316431</v>
       </c>
       <c r="D26">
-        <v>120.3019293546889</v>
+        <v>26.73376207881974</v>
       </c>
       <c r="E26">
-        <v>33.08517336450772</v>
+        <v>7.352260747668383</v>
       </c>
       <c r="F26">
-        <v>172.9321353186029</v>
+        <v>38.42936340413397</v>
       </c>
       <c r="G26">
-        <v>98.84590820312835</v>
+        <v>21.96575737847296</v>
       </c>
       <c r="H26">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I26">
-        <v>1243.423550682855</v>
+        <v>276.3163445961902</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>703.6204694794008</v>
+        <v>156.3601043287557</v>
       </c>
       <c r="C27">
-        <v>0.1894718268142393</v>
+        <v>0.04210485040316431</v>
       </c>
       <c r="D27">
-        <v>86.88472675616414</v>
+        <v>19.30771705692537</v>
       </c>
       <c r="E27">
-        <v>20.08742668559397</v>
+        <v>4.463872596798661</v>
       </c>
       <c r="F27">
-        <v>202.8022314190889</v>
+        <v>45.0671625375753</v>
       </c>
       <c r="G27">
-        <v>69.19213574218982</v>
+        <v>15.37603016493107</v>
       </c>
       <c r="H27">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I27">
-        <v>1084.318498050681</v>
+        <v>240.9596662334846</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>798.5333025926293</v>
+        <v>177.4518450205842</v>
       </c>
       <c r="C28">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D28">
-        <v>86.88472675616414</v>
+        <v>19.30771705692537</v>
       </c>
       <c r="E28">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F28">
-        <v>157.2110321078208</v>
+        <v>34.93578491284908</v>
       </c>
       <c r="G28">
-        <v>98.84590820312835</v>
+        <v>21.96575737847296</v>
       </c>
       <c r="H28">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I28">
-        <v>1171.997800205237</v>
+        <v>260.4439556011637</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>727.6650538680854</v>
+        <v>161.7033453040189</v>
       </c>
       <c r="C29">
-        <v>0.2255616985883802</v>
+        <v>0.05012482190852895</v>
       </c>
       <c r="D29">
-        <v>93.56816727586913</v>
+        <v>20.79292606130425</v>
       </c>
       <c r="E29">
-        <v>20.08742668559397</v>
+        <v>4.463872596798661</v>
       </c>
       <c r="F29">
-        <v>128.913046328413</v>
+        <v>28.64734362853624</v>
       </c>
       <c r="G29">
-        <v>42.00951098632952</v>
+        <v>9.33544688585101</v>
       </c>
       <c r="H29">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I29">
-        <v>1017.094875267166</v>
+        <v>226.0210833927036</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>735.2580805171432</v>
+        <v>163.3906845593652</v>
       </c>
       <c r="C30">
-        <v>0.1353370191530281</v>
+        <v>0.03007489314511737</v>
       </c>
       <c r="D30">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E30">
-        <v>17.72420001670056</v>
+        <v>3.938711114822348</v>
       </c>
       <c r="F30">
-        <v>157.2110321078208</v>
+        <v>34.93578491284908</v>
       </c>
       <c r="G30">
-        <v>81.54787426758085</v>
+        <v>18.1217498372402</v>
       </c>
       <c r="H30">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I30">
-        <v>1081.587674990426</v>
+        <v>240.3528166645393</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>737.7890894001628</v>
+        <v>163.953130977814</v>
       </c>
       <c r="C31">
-        <v>0.1804493588707041</v>
+        <v>0.04009985752682315</v>
       </c>
       <c r="D31">
-        <v>106.935048315279</v>
+        <v>23.76334407006199</v>
       </c>
       <c r="E31">
-        <v>18.90581335114727</v>
+        <v>4.201291855810505</v>
       </c>
       <c r="F31">
-        <v>183.9369075661504</v>
+        <v>40.87486834803342</v>
       </c>
       <c r="G31">
-        <v>51.89410180664236</v>
+        <v>11.5320226236983</v>
       </c>
       <c r="H31">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I31">
-        <v>1102.72548208111</v>
+        <v>245.0501071291357</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>771.957709320925</v>
+        <v>171.5461576268722</v>
       </c>
       <c r="C32">
-        <v>0.2075167627013098</v>
+        <v>0.04611483615584663</v>
       </c>
       <c r="D32">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E32">
-        <v>24.81388002338078</v>
+        <v>5.514195560751286</v>
       </c>
       <c r="F32">
-        <v>183.9369075661504</v>
+        <v>40.87486834803342</v>
       </c>
       <c r="G32">
-        <v>56.83639721679878</v>
+        <v>12.63031049262195</v>
       </c>
       <c r="H32">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I32">
-        <v>1125.921525810555</v>
+        <v>250.2047835134567</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>879.5255868492509</v>
+        <v>195.4501304109445</v>
       </c>
       <c r="C33">
-        <v>0.1443594870965633</v>
+        <v>0.03207988602145852</v>
       </c>
       <c r="D33">
-        <v>133.6688103940988</v>
+        <v>29.70418008757749</v>
       </c>
       <c r="E33">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F33">
-        <v>171.3600249975247</v>
+        <v>38.08000555500548</v>
       </c>
       <c r="G33">
-        <v>54.36524951172056</v>
+        <v>12.08116655816013</v>
       </c>
       <c r="H33">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I33">
-        <v>1272.0488596907</v>
+        <v>282.6775243757108</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1070.616757517218</v>
+        <v>237.9148350038262</v>
       </c>
       <c r="C34">
-        <v>0.216539230644845</v>
+        <v>0.04811982903218779</v>
       </c>
       <c r="D34">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E34">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F34">
-        <v>149.3504805024298</v>
+        <v>33.18899566720661</v>
       </c>
       <c r="G34">
-        <v>39.53836328125132</v>
+        <v>8.786302951389185</v>
       </c>
       <c r="H34">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I34">
-        <v>1370.802676527112</v>
+        <v>304.6228170060249</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1045.306668687023</v>
+        <v>232.2903708193386</v>
       </c>
       <c r="C35">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D35">
-        <v>90.22644701601666</v>
+        <v>20.0503215591148</v>
       </c>
       <c r="E35">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F35">
-        <v>78.60551605391042</v>
+        <v>17.46789245642454</v>
       </c>
       <c r="G35">
-        <v>24.71147705078209</v>
+        <v>5.491439344618241</v>
       </c>
       <c r="H35">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I35">
-        <v>1272.719285061809</v>
+        <v>282.8265077915132</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>921.2872334190713</v>
+        <v>204.7304963153492</v>
       </c>
       <c r="C36">
-        <v>0.1082696153224225</v>
+        <v>0.0240599145160939</v>
       </c>
       <c r="D36">
-        <v>63.49268493719691</v>
+        <v>14.10948554159932</v>
       </c>
       <c r="E36">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F36">
-        <v>56.59597155881548</v>
+        <v>12.57688256862567</v>
       </c>
       <c r="G36">
-        <v>42.00951098632952</v>
+        <v>9.33544688585101</v>
       </c>
       <c r="H36">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I36">
-        <v>1127.934209505228</v>
+        <v>250.6520465567174</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>723.8685405435559</v>
+        <v>160.8596756763458</v>
       </c>
       <c r="C37">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D37">
-        <v>50.12580389778705</v>
+        <v>11.13906753284156</v>
       </c>
       <c r="E37">
-        <v>33.08517336450772</v>
+        <v>7.352260747668383</v>
       </c>
       <c r="F37">
-        <v>50.30753027450267</v>
+        <v>11.1794511721117</v>
       </c>
       <c r="G37">
-        <v>22.24032934570388</v>
+        <v>4.942295410156415</v>
       </c>
       <c r="H37">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I37">
-        <v>881.2235483751474</v>
+        <v>195.8274551944772</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>568.2114942378613</v>
+        <v>126.2692209417469</v>
       </c>
       <c r="C38">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D38">
-        <v>46.78408363793456</v>
+        <v>10.39646303065213</v>
       </c>
       <c r="E38">
-        <v>37.81162670229454</v>
+        <v>8.402583711621009</v>
       </c>
       <c r="F38">
-        <v>33.01431674264236</v>
+        <v>7.336514831698302</v>
       </c>
       <c r="G38">
-        <v>14.82688623046924</v>
+        <v>3.294863606770943</v>
       </c>
       <c r="I38">
-        <v>700.7296097626938</v>
+        <v>155.7176910583764</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>373.3238102453654</v>
+        <v>82.96084672119225</v>
       </c>
       <c r="C39">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D39">
-        <v>20.0503215591148</v>
+        <v>4.455627013136626</v>
       </c>
       <c r="E39">
-        <v>21.26904002004067</v>
+        <v>4.726453337786818</v>
       </c>
       <c r="F39">
-        <v>23.58165481617312</v>
+        <v>5.240367736927359</v>
       </c>
       <c r="G39">
-        <v>17.29803393554745</v>
+        <v>3.844007541232768</v>
       </c>
       <c r="H39">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I39">
-        <v>457.1009865894446</v>
+        <v>101.5779970198765</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>193.6221795509861</v>
+        <v>43.02715101133026</v>
       </c>
       <c r="C40">
-        <v>0.0992471473788873</v>
+        <v>0.02205492163975274</v>
       </c>
       <c r="D40">
-        <v>26.73376207881974</v>
+        <v>5.940836017515498</v>
       </c>
       <c r="E40">
-        <v>9.452906675573635</v>
+        <v>2.100645927905252</v>
       </c>
       <c r="F40">
-        <v>28.29798577940774</v>
+        <v>6.288441284312833</v>
       </c>
       <c r="G40">
-        <v>12.35573852539104</v>
+        <v>2.745719672309121</v>
       </c>
       <c r="I40">
-        <v>270.5618197575572</v>
+        <v>60.12484883501271</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>132.8779663585199</v>
+        <v>29.52843696855998</v>
       </c>
       <c r="C41">
-        <v>0.04511233971767603</v>
+        <v>0.01002496438170579</v>
       </c>
       <c r="D41">
-        <v>6.683440519704936</v>
+        <v>1.485209004378874</v>
       </c>
       <c r="F41">
-        <v>14.14899288970387</v>
+        <v>3.144220642156417</v>
       </c>
       <c r="G41">
-        <v>12.35573852539104</v>
+        <v>2.745719672309121</v>
       </c>
       <c r="I41">
-        <v>166.1112506330374</v>
+        <v>36.9136112517861</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>107.5678775283256</v>
+        <v>23.90397278407235</v>
       </c>
       <c r="C42">
-        <v>0.09022467943535206</v>
+        <v>0.02004992876341158</v>
       </c>
       <c r="D42">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="E42">
-        <v>1.181613334446704</v>
+        <v>0.2625807409881565</v>
       </c>
       <c r="F42">
-        <v>18.86532385293849</v>
+        <v>4.192294189541888</v>
       </c>
       <c r="G42">
-        <v>9.88459082031283</v>
+        <v>2.196575737847296</v>
       </c>
       <c r="H42">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I42">
-        <v>154.0405835377269</v>
+        <v>34.23124078616151</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>59.47870875095655</v>
+        <v>13.2174908335459</v>
       </c>
       <c r="C43">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D43">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="F43">
-        <v>20.43743417401671</v>
+        <v>4.54165203867038</v>
       </c>
       <c r="G43">
-        <v>17.29803393554745</v>
+        <v>3.844007541232768</v>
       </c>
       <c r="I43">
-        <v>110.6081253037612</v>
+        <v>24.57958340083582</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>58.21320430944678</v>
+        <v>12.93626762432151</v>
       </c>
       <c r="C44">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D44">
-        <v>10.0251607795574</v>
+        <v>2.227813506568313</v>
       </c>
       <c r="E44">
-        <v>4.726453337786817</v>
+        <v>1.050322963952626</v>
       </c>
       <c r="F44">
-        <v>12.57688256862567</v>
+        <v>2.794862793027925</v>
       </c>
       <c r="G44">
-        <v>4.942295410156415</v>
+        <v>1.098287868923648</v>
       </c>
       <c r="I44">
-        <v>90.51106380940369</v>
+        <v>20.11356973542305</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>151.8605329811657</v>
+        <v>33.74678510692569</v>
       </c>
       <c r="C45">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D45">
-        <v>13.36688103940987</v>
+        <v>2.970418008757749</v>
       </c>
       <c r="E45">
-        <v>2.363226668893409</v>
+        <v>0.5251614819763131</v>
       </c>
       <c r="F45">
-        <v>20.43743417401671</v>
+        <v>4.54165203867038</v>
       </c>
       <c r="G45">
-        <v>4.942295410156415</v>
+        <v>1.098287868923648</v>
       </c>
       <c r="I45">
-        <v>192.9793927415856</v>
+        <v>42.88430949813011</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>437.8645367623609</v>
+        <v>97.30323039163571</v>
       </c>
       <c r="C46">
-        <v>0.07217974354828166</v>
+        <v>0.01603994301072926</v>
       </c>
       <c r="D46">
-        <v>50.12580389778705</v>
+        <v>11.13906753284156</v>
       </c>
       <c r="E46">
-        <v>10.63452001002034</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F46">
-        <v>66.02863348528473</v>
+        <v>14.6730296633966</v>
       </c>
       <c r="G46">
-        <v>39.53836328125132</v>
+        <v>8.786302951389185</v>
       </c>
       <c r="I46">
-        <v>604.2640371802527</v>
+        <v>134.2808971511672</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>693.4964339473231</v>
+        <v>154.1103186549606</v>
       </c>
       <c r="C47">
-        <v>0.1263145512094929</v>
+        <v>0.02806990026877621</v>
       </c>
       <c r="D47">
-        <v>53.46752415763949</v>
+        <v>11.881672035031</v>
       </c>
       <c r="E47">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F47">
-        <v>117.9082740808656</v>
+        <v>26.2018386846368</v>
       </c>
       <c r="G47">
-        <v>81.54787426758085</v>
+        <v>18.1217498372402</v>
       </c>
       <c r="H47">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I47">
-        <v>995.613068417398</v>
+        <v>221.2473485371995</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>913.6942067700134</v>
+        <v>203.0431570600029</v>
       </c>
       <c r="C48">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D48">
-        <v>83.54300649631172</v>
+        <v>18.56511255473594</v>
       </c>
       <c r="E48">
-        <v>44.90130670897475</v>
+        <v>9.978068157549945</v>
       </c>
       <c r="F48">
-        <v>128.913046328413</v>
+        <v>28.64734362853624</v>
       </c>
       <c r="G48">
-        <v>49.42295410156417</v>
+        <v>10.98287868923648</v>
       </c>
       <c r="H48">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I48">
-        <v>1223.639794899627</v>
+        <v>271.9199544221392</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>923.8182423020912</v>
+        <v>205.2929427337979</v>
       </c>
       <c r="C49">
-        <v>0.09022467943535206</v>
+        <v>0.02004992876341158</v>
       </c>
       <c r="D49">
-        <v>66.83440519704941</v>
+        <v>14.85209004378875</v>
       </c>
       <c r="E49">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F49">
-        <v>97.47083990684891</v>
+        <v>21.66018664596642</v>
       </c>
       <c r="G49">
-        <v>74.13443115234622</v>
+        <v>16.47431803385472</v>
       </c>
       <c r="H49">
-        <v>9.252216848573928</v>
+        <v>2.056048188571983</v>
       </c>
       <c r="I49">
-        <v>1202.322306781959</v>
+        <v>267.1827348404352</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>181.1077467405013</v>
+        <v>191.351879070438</v>
       </c>
       <c r="C2">
-        <v>0.04210485040316431</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D2">
-        <v>26.73376207881974</v>
+        <v>119.594615298548</v>
       </c>
       <c r="E2">
-        <v>7.352260747668383</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F2">
-        <v>38.42936340413397</v>
+        <v>171.3536819915336</v>
       </c>
       <c r="G2">
-        <v>21.96575737847296</v>
+        <v>98.18184850779593</v>
       </c>
       <c r="H2">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I2">
-        <v>276.3163445961902</v>
+        <v>616.8407423424954</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>208.1051748260417</v>
+        <v>219.8763827828016</v>
       </c>
       <c r="C3">
-        <v>0.05012482190852895</v>
+        <v>0.2255616985883802</v>
       </c>
       <c r="D3">
-        <v>17.8225080525465</v>
+        <v>79.7297435323653</v>
       </c>
       <c r="E3">
-        <v>4.201291855810505</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F3">
-        <v>48.21138317973171</v>
+        <v>214.9709828621057</v>
       </c>
       <c r="G3">
-        <v>34.04692393663308</v>
+        <v>152.1818651870838</v>
       </c>
       <c r="I3">
-        <v>312.4374066726721</v>
+        <v>685.890349414092</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>169.5775951623015</v>
+        <v>179.1695389432828</v>
       </c>
       <c r="C4">
-        <v>0.03608987177414084</v>
+        <v>0.1624044229836337</v>
       </c>
       <c r="D4">
-        <v>14.10948554159932</v>
+        <v>63.11938029645589</v>
       </c>
       <c r="E4">
-        <v>7.089680006680227</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F4">
-        <v>37.73064770587697</v>
+        <v>168.2381605007783</v>
       </c>
       <c r="G4">
-        <v>22.51490131293479</v>
+        <v>100.6363947204908</v>
       </c>
       <c r="H4">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I4">
-        <v>251.7437489973577</v>
+        <v>546.3135111969104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>194.0440143648227</v>
+        <v>205.0198704326123</v>
       </c>
       <c r="C5">
-        <v>0.04811982903218779</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D5">
-        <v>21.53553056349369</v>
+        <v>96.34010676827474</v>
       </c>
       <c r="E5">
-        <v>4.726453337786818</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F5">
-        <v>36.68257415849151</v>
+        <v>163.5648782646457</v>
       </c>
       <c r="G5">
-        <v>15.9251740993929</v>
+        <v>71.18184016815202</v>
       </c>
       <c r="H5">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I5">
-        <v>274.3325651454011</v>
+        <v>563.7604194500861</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>184.4824252511937</v>
+        <v>194.9174420344835</v>
       </c>
       <c r="C6">
-        <v>0.0661647649192582</v>
+        <v>0.2977414421366619</v>
       </c>
       <c r="D6">
-        <v>17.8225080525465</v>
+        <v>79.7297435323653</v>
       </c>
       <c r="E6">
-        <v>4.463872596798661</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F6">
-        <v>36.33321630936304</v>
+        <v>162.0071175192681</v>
       </c>
       <c r="G6">
-        <v>21.41661344401114</v>
+        <v>95.72730229510101</v>
       </c>
       <c r="H6">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I6">
-        <v>264.9274751169276</v>
+        <v>554.3088096503775</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>180.8265235312769</v>
+        <v>191.0547488234342</v>
       </c>
       <c r="C7">
-        <v>0.03809486465048199</v>
+        <v>0.171426890927169</v>
       </c>
       <c r="D7">
-        <v>14.10948554159932</v>
+        <v>63.11938029645589</v>
       </c>
       <c r="E7">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F7">
-        <v>40.87486834803342</v>
+        <v>182.2580072091766</v>
       </c>
       <c r="G7">
-        <v>19.76918164062566</v>
+        <v>88.3636636570163</v>
       </c>
       <c r="H7">
-        <v>3.084072282857976</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I7">
-        <v>264.7415832517714</v>
+        <v>566.0226588421453</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>174.358389719116</v>
+        <v>184.220753142347</v>
       </c>
       <c r="C8">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D8">
-        <v>14.85209004378875</v>
+        <v>66.44145294363774</v>
       </c>
       <c r="E8">
-        <v>5.25161481976313</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F8">
-        <v>38.77872125326245</v>
+        <v>172.9114427369111</v>
       </c>
       <c r="G8">
-        <v>16.47431803385472</v>
+        <v>73.63638638084691</v>
       </c>
       <c r="H8">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I8">
-        <v>250.8013027574849</v>
+        <v>525.7300618873263</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>195.4501304109445</v>
+        <v>206.5055216676311</v>
       </c>
       <c r="C9">
-        <v>0.03207988602145852</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D9">
-        <v>29.70418008757749</v>
+        <v>132.8829058872755</v>
       </c>
       <c r="E9">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F9">
-        <v>38.08000555500548</v>
+        <v>169.7959212461559</v>
       </c>
       <c r="G9">
-        <v>12.08116655816013</v>
+        <v>54.00001667928774</v>
       </c>
       <c r="H9">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I9">
-        <v>282.6775243757108</v>
+        <v>596.3135534184546</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>237.9148350038262</v>
+        <v>251.372188965203</v>
       </c>
       <c r="C10">
-        <v>0.04811982903218779</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D10">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E10">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F10">
-        <v>33.18899566720661</v>
+        <v>147.9872708108699</v>
       </c>
       <c r="G10">
-        <v>8.786302951389185</v>
+        <v>39.27273940311836</v>
       </c>
       <c r="H10">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I10">
-        <v>304.6228170060249</v>
+        <v>549.4380840886398</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>232.2903708193386</v>
+        <v>245.429584025127</v>
       </c>
       <c r="C11">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D11">
-        <v>20.0503215591148</v>
+        <v>89.69596147391101</v>
       </c>
       <c r="E11">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F11">
-        <v>17.46789245642454</v>
+        <v>77.88803726887885</v>
       </c>
       <c r="G11">
-        <v>5.491439344618241</v>
+        <v>24.54546212694898</v>
       </c>
       <c r="H11">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I11">
-        <v>282.8265077915132</v>
+        <v>471.4282211489428</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>204.7304963153492</v>
+        <v>216.3108198187561</v>
       </c>
       <c r="C12">
-        <v>0.0240599145160939</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D12">
-        <v>14.10948554159932</v>
+        <v>63.11938029645589</v>
       </c>
       <c r="E12">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F12">
-        <v>12.57688256862567</v>
+        <v>56.07938683359279</v>
       </c>
       <c r="G12">
-        <v>9.33544688585101</v>
+        <v>41.72728561581327</v>
       </c>
       <c r="H12">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I12">
-        <v>250.6520465567174</v>
+        <v>421.7856811684331</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>160.8596756763458</v>
+        <v>169.9585012861654</v>
       </c>
       <c r="C13">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D13">
-        <v>11.13906753284156</v>
+        <v>49.83108970772835</v>
       </c>
       <c r="E13">
-        <v>7.352260747668383</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F13">
-        <v>11.1794511721117</v>
+        <v>49.84834385208248</v>
       </c>
       <c r="G13">
-        <v>4.942295410156415</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H13">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I13">
-        <v>195.8274551944772</v>
+        <v>326.4101950738283</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>126.2692209417469</v>
+        <v>133.4114809046998</v>
       </c>
       <c r="C14">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D14">
-        <v>10.39646303065213</v>
+        <v>46.50901706054642</v>
       </c>
       <c r="E14">
-        <v>8.402583711621009</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F14">
-        <v>7.336514831698302</v>
+        <v>32.71297565292912</v>
       </c>
       <c r="G14">
-        <v>3.294863606770943</v>
+        <v>14.72727727616939</v>
       </c>
       <c r="I14">
-        <v>155.7176910583764</v>
+        <v>265.2535798081311</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>82.96084672119225</v>
+        <v>87.65342286611674</v>
       </c>
       <c r="C15">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D15">
-        <v>4.455627013136626</v>
+        <v>19.93243588309133</v>
       </c>
       <c r="E15">
-        <v>4.726453337786818</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F15">
-        <v>5.240367736927359</v>
+        <v>23.36641118066366</v>
       </c>
       <c r="G15">
-        <v>3.844007541232768</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="H15">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I15">
-        <v>101.5779970198765</v>
+        <v>170.9812594519798</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>43.02715101133026</v>
+        <v>45.46092779157923</v>
       </c>
       <c r="C16">
-        <v>0.02205492163975274</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D16">
-        <v>5.940836017515498</v>
+        <v>26.5765811774551</v>
       </c>
       <c r="E16">
-        <v>2.100645927905252</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F16">
-        <v>6.288441284312833</v>
+        <v>28.0396934167964</v>
       </c>
       <c r="G16">
-        <v>2.745719672309121</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I16">
-        <v>60.12484883501271</v>
+        <v>121.9020872722577</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>29.52843696855998</v>
+        <v>31.1986759353975</v>
       </c>
       <c r="C17">
-        <v>0.01002496438170579</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D17">
-        <v>1.485209004378874</v>
+        <v>6.644145294363775</v>
       </c>
       <c r="F17">
-        <v>3.144220642156417</v>
+        <v>14.0198467083982</v>
       </c>
       <c r="G17">
-        <v>2.745719672309121</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I17">
-        <v>36.9136112517861</v>
+        <v>64.18051134135163</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>23.90397278407235</v>
+        <v>25.25607099532181</v>
       </c>
       <c r="C18">
-        <v>0.02004992876341158</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D18">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="E18">
-        <v>0.2625807409881565</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F18">
-        <v>4.192294189541888</v>
+        <v>18.69312894453093</v>
       </c>
       <c r="G18">
-        <v>2.196575737847296</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="H18">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I18">
-        <v>34.23124078616151</v>
+        <v>71.4115856760999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>13.2174908335459</v>
+        <v>13.96512160917793</v>
       </c>
       <c r="C19">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D19">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="F19">
-        <v>4.54165203867038</v>
+        <v>20.25088968990851</v>
       </c>
       <c r="G19">
-        <v>3.844007541232768</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="I19">
-        <v>24.57958340083582</v>
+        <v>64.71319278050888</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>12.93626762432151</v>
+        <v>13.66799136217415</v>
       </c>
       <c r="C20">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D20">
-        <v>2.227813506568313</v>
+        <v>9.966217941545663</v>
       </c>
       <c r="E20">
-        <v>1.050322963952626</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F20">
-        <v>2.794862793027925</v>
+        <v>12.46208596302062</v>
       </c>
       <c r="G20">
-        <v>1.098287868923648</v>
+        <v>4.909092425389796</v>
       </c>
       <c r="I20">
-        <v>20.11356973542305</v>
+        <v>45.75890843374766</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>33.74678510692569</v>
+        <v>35.65562964045429</v>
       </c>
       <c r="C21">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D21">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="E21">
-        <v>0.5251614819763131</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F21">
-        <v>4.54165203867038</v>
+        <v>20.25088968990851</v>
       </c>
       <c r="G21">
-        <v>1.098287868923648</v>
+        <v>4.909092425389796</v>
       </c>
       <c r="I21">
-        <v>42.88430949813011</v>
+        <v>76.4761514813171</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>97.30323039163571</v>
+        <v>102.8070654633099</v>
       </c>
       <c r="C22">
-        <v>0.01603994301072926</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D22">
-        <v>11.13906753284156</v>
+        <v>49.83108970772835</v>
       </c>
       <c r="E22">
-        <v>2.363226668893409</v>
+        <v>10.63452001002034</v>
       </c>
       <c r="F22">
-        <v>14.6730296633966</v>
+        <v>65.42595130585825</v>
       </c>
       <c r="G22">
-        <v>8.786302951389185</v>
+        <v>39.27273940311836</v>
       </c>
       <c r="I22">
-        <v>134.2808971511672</v>
+        <v>268.0435456335834</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>154.1103186549606</v>
+        <v>162.8273753580747</v>
       </c>
       <c r="C23">
-        <v>0.02806990026877621</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D23">
-        <v>11.881672035031</v>
+        <v>53.1531623549102</v>
       </c>
       <c r="E23">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F23">
-        <v>26.2018386846368</v>
+        <v>116.8320559033183</v>
       </c>
       <c r="G23">
-        <v>18.1217498372402</v>
+        <v>81.00002501893167</v>
       </c>
       <c r="H23">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I23">
-        <v>221.2473485371995</v>
+        <v>463.0055805992239</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>203.0431570600029</v>
+        <v>214.5280383367335</v>
       </c>
       <c r="C24">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D24">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E24">
-        <v>9.978068157549945</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F24">
-        <v>28.64734362853624</v>
+        <v>127.7363811209613</v>
       </c>
       <c r="G24">
-        <v>10.98287868923648</v>
+        <v>49.09092425389797</v>
       </c>
       <c r="H24">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I24">
-        <v>271.9199544221392</v>
+        <v>522.4737410944645</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>205.2929427337979</v>
+        <v>216.9050803127637</v>
       </c>
       <c r="C25">
-        <v>0.02004992876341158</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D25">
-        <v>14.85209004378875</v>
+        <v>66.44145294363774</v>
       </c>
       <c r="E25">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F25">
-        <v>21.66018664596642</v>
+        <v>96.58116621340983</v>
       </c>
       <c r="G25">
-        <v>16.47431803385472</v>
+        <v>73.63638638084691</v>
       </c>
       <c r="H25">
-        <v>2.056048188571983</v>
+        <v>9.252216848573928</v>
       </c>
       <c r="I25">
-        <v>267.1827348404352</v>
+        <v>493.6284740742818</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>181.1077467405013</v>
+        <v>191.351879070438</v>
       </c>
       <c r="C26">
-        <v>0.04210485040316431</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D26">
-        <v>26.73376207881974</v>
+        <v>119.594615298548</v>
       </c>
       <c r="E26">
-        <v>7.352260747668383</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F26">
-        <v>38.42936340413397</v>
+        <v>171.3536819915336</v>
       </c>
       <c r="G26">
-        <v>21.96575737847296</v>
+        <v>98.18184850779593</v>
       </c>
       <c r="H26">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I26">
-        <v>276.3163445961902</v>
+        <v>616.8407423424954</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>156.3601043287557</v>
+        <v>165.2044173341051</v>
       </c>
       <c r="C27">
-        <v>0.04210485040316431</v>
+        <v>0.1894718268142393</v>
       </c>
       <c r="D27">
-        <v>19.30771705692537</v>
+        <v>86.37388882672907</v>
       </c>
       <c r="E27">
-        <v>4.463872596798661</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F27">
-        <v>45.0671625375753</v>
+        <v>200.9511361537074</v>
       </c>
       <c r="G27">
-        <v>15.37603016493107</v>
+        <v>68.72729395545716</v>
       </c>
       <c r="H27">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I27">
-        <v>240.9596662334846</v>
+        <v>543.075670923836</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>177.4518450205842</v>
+        <v>187.4891858593889</v>
       </c>
       <c r="C28">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D28">
-        <v>19.30771705692537</v>
+        <v>86.37388882672907</v>
       </c>
       <c r="E28">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F28">
-        <v>34.93578491284908</v>
+        <v>155.7760745377577</v>
       </c>
       <c r="G28">
-        <v>21.96575737847296</v>
+        <v>98.18184850779593</v>
       </c>
       <c r="H28">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I28">
-        <v>260.4439556011637</v>
+        <v>558.3438282771663</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>161.7033453040189</v>
+        <v>170.8498920271768</v>
       </c>
       <c r="C29">
-        <v>0.05012482190852895</v>
+        <v>0.2255616985883802</v>
       </c>
       <c r="D29">
-        <v>20.79292606130425</v>
+        <v>93.01803412109284</v>
       </c>
       <c r="E29">
-        <v>4.463872596798661</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F29">
-        <v>28.64734362853624</v>
+        <v>127.7363811209613</v>
       </c>
       <c r="G29">
-        <v>9.33544688585101</v>
+        <v>41.72728561581327</v>
       </c>
       <c r="H29">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I29">
-        <v>226.0210833927036</v>
+        <v>458.2706896935136</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>163.3906845593652</v>
+        <v>172.6326735091994</v>
       </c>
       <c r="C30">
-        <v>0.03007489314511737</v>
+        <v>0.1353370191530281</v>
       </c>
       <c r="D30">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E30">
-        <v>3.938711114822348</v>
+        <v>17.72420001670056</v>
       </c>
       <c r="F30">
-        <v>34.93578491284908</v>
+        <v>155.7760745377577</v>
       </c>
       <c r="G30">
-        <v>18.1217498372402</v>
+        <v>81.00002501893167</v>
       </c>
       <c r="H30">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I30">
-        <v>240.3528166645393</v>
+        <v>516.4882708470055</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>163.953130977814</v>
+        <v>173.2269340032072</v>
       </c>
       <c r="C31">
-        <v>0.04009985752682315</v>
+        <v>0.1804493588707041</v>
       </c>
       <c r="D31">
-        <v>23.76334407006199</v>
+        <v>106.3063247098204</v>
       </c>
       <c r="E31">
-        <v>4.201291855810505</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F31">
-        <v>40.87486834803342</v>
+        <v>182.2580072091766</v>
       </c>
       <c r="G31">
-        <v>11.5320226236983</v>
+        <v>51.54547046659284</v>
       </c>
       <c r="H31">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I31">
-        <v>245.0501071291357</v>
+        <v>535.5070713816731</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>171.5461576268722</v>
+        <v>181.2494506723094</v>
       </c>
       <c r="C32">
-        <v>0.04611483615584663</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D32">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E32">
-        <v>5.514195560751286</v>
+        <v>24.81388002338078</v>
       </c>
       <c r="F32">
-        <v>40.87486834803342</v>
+        <v>182.2580072091766</v>
       </c>
       <c r="G32">
-        <v>12.63031049262195</v>
+        <v>56.45456289198265</v>
       </c>
       <c r="H32">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I32">
-        <v>250.2047835134567</v>
+        <v>532.6613421633849</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>195.4501304109445</v>
+        <v>206.5055216676311</v>
       </c>
       <c r="C33">
-        <v>0.03207988602145852</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D33">
-        <v>29.70418008757749</v>
+        <v>132.8829058872755</v>
       </c>
       <c r="E33">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F33">
-        <v>38.08000555500548</v>
+        <v>169.7959212461559</v>
       </c>
       <c r="G33">
-        <v>12.08116655816013</v>
+        <v>54.00001667928774</v>
       </c>
       <c r="H33">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I33">
-        <v>282.6775243757108</v>
+        <v>596.3135534184546</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>237.9148350038262</v>
+        <v>251.372188965203</v>
       </c>
       <c r="C34">
-        <v>0.04811982903218779</v>
+        <v>0.216539230644845</v>
       </c>
       <c r="D34">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E34">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F34">
-        <v>33.18899566720661</v>
+        <v>147.9872708108699</v>
       </c>
       <c r="G34">
-        <v>8.786302951389185</v>
+        <v>39.27273940311836</v>
       </c>
       <c r="H34">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I34">
-        <v>304.6228170060249</v>
+        <v>549.4380840886398</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>232.2903708193386</v>
+        <v>245.429584025127</v>
       </c>
       <c r="C35">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D35">
-        <v>20.0503215591148</v>
+        <v>89.69596147391101</v>
       </c>
       <c r="E35">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F35">
-        <v>17.46789245642454</v>
+        <v>77.88803726887885</v>
       </c>
       <c r="G35">
-        <v>5.491439344618241</v>
+        <v>24.54546212694898</v>
       </c>
       <c r="H35">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I35">
-        <v>282.8265077915132</v>
+        <v>471.4282211489428</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>204.7304963153492</v>
+        <v>216.3108198187561</v>
       </c>
       <c r="C36">
-        <v>0.0240599145160939</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D36">
-        <v>14.10948554159932</v>
+        <v>63.11938029645589</v>
       </c>
       <c r="E36">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F36">
-        <v>12.57688256862567</v>
+        <v>56.07938683359279</v>
       </c>
       <c r="G36">
-        <v>9.33544688585101</v>
+        <v>41.72728561581327</v>
       </c>
       <c r="H36">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I36">
-        <v>250.6520465567174</v>
+        <v>421.7856811684331</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>160.8596756763458</v>
+        <v>169.9585012861654</v>
       </c>
       <c r="C37">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D37">
-        <v>11.13906753284156</v>
+        <v>49.83108970772835</v>
       </c>
       <c r="E37">
-        <v>7.352260747668383</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F37">
-        <v>11.1794511721117</v>
+        <v>49.84834385208248</v>
       </c>
       <c r="G37">
-        <v>4.942295410156415</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H37">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I37">
-        <v>195.8274551944772</v>
+        <v>326.4101950738283</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>126.2692209417469</v>
+        <v>133.4114809046998</v>
       </c>
       <c r="C38">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D38">
-        <v>10.39646303065213</v>
+        <v>46.50901706054642</v>
       </c>
       <c r="E38">
-        <v>8.402583711621009</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F38">
-        <v>7.336514831698302</v>
+        <v>32.71297565292912</v>
       </c>
       <c r="G38">
-        <v>3.294863606770943</v>
+        <v>14.72727727616939</v>
       </c>
       <c r="I38">
-        <v>155.7176910583764</v>
+        <v>265.2535798081311</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>82.96084672119225</v>
+        <v>87.65342286611674</v>
       </c>
       <c r="C39">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D39">
-        <v>4.455627013136626</v>
+        <v>19.93243588309133</v>
       </c>
       <c r="E39">
-        <v>4.726453337786818</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F39">
-        <v>5.240367736927359</v>
+        <v>23.36641118066366</v>
       </c>
       <c r="G39">
-        <v>3.844007541232768</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="H39">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I39">
-        <v>101.5779970198765</v>
+        <v>170.9812594519798</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>43.02715101133026</v>
+        <v>45.46092779157923</v>
       </c>
       <c r="C40">
-        <v>0.02205492163975274</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D40">
-        <v>5.940836017515498</v>
+        <v>26.5765811774551</v>
       </c>
       <c r="E40">
-        <v>2.100645927905252</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F40">
-        <v>6.288441284312833</v>
+        <v>28.0396934167964</v>
       </c>
       <c r="G40">
-        <v>2.745719672309121</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I40">
-        <v>60.12484883501271</v>
+        <v>121.9020872722577</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>29.52843696855998</v>
+        <v>31.1986759353975</v>
       </c>
       <c r="C41">
-        <v>0.01002496438170579</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D41">
-        <v>1.485209004378874</v>
+        <v>6.644145294363775</v>
       </c>
       <c r="F41">
-        <v>3.144220642156417</v>
+        <v>14.0198467083982</v>
       </c>
       <c r="G41">
-        <v>2.745719672309121</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I41">
-        <v>36.9136112517861</v>
+        <v>64.18051134135163</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>23.90397278407235</v>
+        <v>25.25607099532181</v>
       </c>
       <c r="C42">
-        <v>0.02004992876341158</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D42">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="E42">
-        <v>0.2625807409881565</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F42">
-        <v>4.192294189541888</v>
+        <v>18.69312894453093</v>
       </c>
       <c r="G42">
-        <v>2.196575737847296</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="H42">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I42">
-        <v>34.23124078616151</v>
+        <v>71.4115856760999</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>13.2174908335459</v>
+        <v>13.96512160917793</v>
       </c>
       <c r="C43">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D43">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="F43">
-        <v>4.54165203867038</v>
+        <v>20.25088968990851</v>
       </c>
       <c r="G43">
-        <v>3.844007541232768</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="I43">
-        <v>24.57958340083582</v>
+        <v>64.71319278050888</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>12.93626762432151</v>
+        <v>13.66799136217415</v>
       </c>
       <c r="C44">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D44">
-        <v>2.227813506568313</v>
+        <v>9.966217941545663</v>
       </c>
       <c r="E44">
-        <v>1.050322963952626</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F44">
-        <v>2.794862793027925</v>
+        <v>12.46208596302062</v>
       </c>
       <c r="G44">
-        <v>1.098287868923648</v>
+        <v>4.909092425389796</v>
       </c>
       <c r="I44">
-        <v>20.11356973542305</v>
+        <v>45.75890843374766</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>33.74678510692569</v>
+        <v>35.65562964045429</v>
       </c>
       <c r="C45">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D45">
-        <v>2.970418008757749</v>
+        <v>13.28829058872755</v>
       </c>
       <c r="E45">
-        <v>0.5251614819763131</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F45">
-        <v>4.54165203867038</v>
+        <v>20.25088968990851</v>
       </c>
       <c r="G45">
-        <v>1.098287868923648</v>
+        <v>4.909092425389796</v>
       </c>
       <c r="I45">
-        <v>42.88430949813011</v>
+        <v>76.4761514813171</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>97.30323039163571</v>
+        <v>102.8070654633099</v>
       </c>
       <c r="C46">
-        <v>0.01603994301072926</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D46">
-        <v>11.13906753284156</v>
+        <v>49.83108970772835</v>
       </c>
       <c r="E46">
-        <v>2.363226668893409</v>
+        <v>10.63452001002034</v>
       </c>
       <c r="F46">
-        <v>14.6730296633966</v>
+        <v>65.42595130585825</v>
       </c>
       <c r="G46">
-        <v>8.786302951389185</v>
+        <v>39.27273940311836</v>
       </c>
       <c r="I46">
-        <v>134.2808971511672</v>
+        <v>268.0435456335834</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>154.1103186549606</v>
+        <v>162.8273753580747</v>
       </c>
       <c r="C47">
-        <v>0.02806990026877621</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D47">
-        <v>11.881672035031</v>
+        <v>53.1531623549102</v>
       </c>
       <c r="E47">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F47">
-        <v>26.2018386846368</v>
+        <v>116.8320559033183</v>
       </c>
       <c r="G47">
-        <v>18.1217498372402</v>
+        <v>81.00002501893167</v>
       </c>
       <c r="H47">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I47">
-        <v>221.2473485371995</v>
+        <v>463.0055805992239</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>203.0431570600029</v>
+        <v>214.5280383367335</v>
       </c>
       <c r="C48">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D48">
-        <v>18.56511255473594</v>
+        <v>83.05181617954723</v>
       </c>
       <c r="E48">
-        <v>9.978068157549945</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F48">
-        <v>28.64734362853624</v>
+        <v>127.7363811209613</v>
       </c>
       <c r="G48">
-        <v>10.98287868923648</v>
+        <v>49.09092425389797</v>
       </c>
       <c r="H48">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I48">
-        <v>271.9199544221392</v>
+        <v>522.4737410944645</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>205.2929427337979</v>
+        <v>216.9050803127637</v>
       </c>
       <c r="C49">
-        <v>0.02004992876341158</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D49">
-        <v>14.85209004378875</v>
+        <v>66.44145294363774</v>
       </c>
       <c r="E49">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F49">
-        <v>21.66018664596642</v>
+        <v>96.58116621340983</v>
       </c>
       <c r="G49">
-        <v>16.47431803385472</v>
+        <v>73.63638638084691</v>
       </c>
       <c r="H49">
-        <v>2.056048188571983</v>
+        <v>9.252216848573928</v>
       </c>
       <c r="I49">
-        <v>267.1827348404352</v>
+        <v>493.6284740742818</v>
       </c>
     </row>
   </sheetData>
